--- a/db/redis.xlsx
+++ b/db/redis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="20715" windowHeight="13140" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="集合set" sheetId="5" r:id="rId6"/>
     <sheet name="有序集合zset" sheetId="6" r:id="rId7"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="863">
   <si>
     <t>使用描述</t>
   </si>
@@ -2965,16 +2966,52 @@
   <si>
     <t>xpending key group [start end count] [consumer]</t>
   </si>
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>方向</t>
+  </si>
+  <si>
+    <t>返回值</t>
+  </si>
+  <si>
+    <t>新建key</t>
+  </si>
+  <si>
+    <t>删除元素</t>
+  </si>
+  <si>
+    <t>会阻塞</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>建</t>
+  </si>
+  <si>
+    <t>尾</t>
+  </si>
+  <si>
+    <t>正-头尾；负-尾头</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t>获取但不删</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -2985,12 +3022,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
@@ -2998,6 +3029,12 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -3052,6 +3089,53 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3074,39 +3158,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3128,31 +3180,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3166,15 +3211,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3182,15 +3220,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3228,19 +3265,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,7 +3295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3270,7 +3307,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3282,13 +3409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3300,97 +3433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3402,13 +3445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3503,17 +3540,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3544,48 +3608,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3600,6 +3622,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3608,10 +3645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3620,137 +3657,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3775,10 +3812,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3790,25 +3827,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3847,7 +3884,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3856,7 +3893,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3880,31 +3917,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4296,154 +4330,154 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="3:8">
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="3:8">
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="3:8">
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
     <row r="16" spans="3:8">
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
     <row r="17" spans="3:8">
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
     </row>
     <row r="18" spans="3:8">
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
     </row>
     <row r="19" spans="3:8">
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
     </row>
     <row r="21" spans="3:8">
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
     </row>
     <row r="22" spans="3:8">
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
     </row>
     <row r="23" spans="3:8">
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
     </row>
     <row r="24" spans="3:8">
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
     </row>
     <row r="25" spans="3:8">
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="3:8">
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="3:8">
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="3:8">
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="3:8">
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="3:8">
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4478,15 +4512,15 @@
   <sheetPr/>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="44" customWidth="1"/>
+    <col min="1" max="1" width="42.5" style="43" customWidth="1"/>
     <col min="2" max="2" width="41.625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9" style="45"/>
+    <col min="3" max="3" width="9" style="44"/>
     <col min="4" max="4" width="15.375" style="8" customWidth="1"/>
     <col min="5" max="5" width="133.25" style="8" customWidth="1"/>
     <col min="6" max="16" width="9" style="8"/>
@@ -4501,13 +4535,13 @@
       <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4518,11 +4552,11 @@
       <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4533,11 +4567,11 @@
       <c r="B3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="48"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4548,11 +4582,11 @@
       <c r="B4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="48"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4563,11 +4597,11 @@
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="48"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="46" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4578,11 +4612,11 @@
       <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="48"/>
+      <c r="C6" s="47"/>
       <c r="D6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="46" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4593,11 +4627,11 @@
       <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="49"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4608,7 +4642,7 @@
       <c r="B8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>33</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -4625,11 +4659,11 @@
       <c r="B9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="48"/>
+      <c r="C9" s="47"/>
       <c r="D9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="46" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4640,11 +4674,11 @@
       <c r="B10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="49"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4655,13 +4689,13 @@
       <c r="B11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="45" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="46" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4672,11 +4706,11 @@
       <c r="B12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="49"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="46" t="s">
         <v>52</v>
       </c>
     </row>
@@ -4687,13 +4721,13 @@
       <c r="B13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="50" t="s">
+      <c r="C13" s="49" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="46" t="s">
         <v>56</v>
       </c>
     </row>
@@ -4704,13 +4738,13 @@
       <c r="B14" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="50" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="46" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4721,11 +4755,11 @@
       <c r="B15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="48"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="47" t="s">
+      <c r="E15" s="46" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4736,11 +4770,11 @@
       <c r="B16" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="48"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="46" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4751,11 +4785,11 @@
       <c r="B17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="48"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="47" t="s">
+      <c r="E17" s="46" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4766,11 +4800,11 @@
       <c r="B18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="49"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="47" t="s">
+      <c r="E18" s="46" t="s">
         <v>73</v>
       </c>
     </row>
@@ -4781,13 +4815,13 @@
       <c r="B19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="49" t="s">
         <v>76</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="46" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4798,14 +4832,14 @@
       <c r="B20" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="13"/>
       <c r="E20" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="51" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4848,524 +4882,524 @@
       <c r="A1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="42"/>
     </row>
     <row r="2" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A2" s="43">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>87</v>
       </c>
       <c r="G2" s="42"/>
     </row>
     <row r="3" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A3" s="43">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>89</v>
       </c>
       <c r="G3" s="42"/>
     </row>
     <row r="4" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A4" s="43">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G4" s="42"/>
     </row>
     <row r="5" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A5" s="43">
+      <c r="A5" s="41">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G5" s="42"/>
     </row>
     <row r="6" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A6" s="43">
+      <c r="A6" s="41">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>96</v>
       </c>
       <c r="G6" s="42"/>
     </row>
     <row r="7" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A7" s="43">
+      <c r="A7" s="41">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G7" s="42"/>
     </row>
     <row r="8" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A8" s="43">
+      <c r="A8" s="41">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="G8" s="42"/>
     </row>
     <row r="9" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A9" s="43">
+      <c r="A9" s="41">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="3">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G9" s="42"/>
     </row>
     <row r="10" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A10" s="43">
+      <c r="A10" s="41">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="42"/>
     </row>
     <row r="11" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A11" s="43">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>108</v>
       </c>
       <c r="G11" s="42"/>
     </row>
     <row r="12" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A12" s="43">
+      <c r="A12" s="41">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G12" s="42"/>
     </row>
     <row r="13" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A13" s="43">
+      <c r="A13" s="41">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="3">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="42"/>
     </row>
     <row r="14" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A14" s="43">
+      <c r="A14" s="41">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="3">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>115</v>
       </c>
       <c r="G14" s="42"/>
     </row>
     <row r="15" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A15" s="43">
+      <c r="A15" s="41">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>118</v>
       </c>
       <c r="G15" s="42"/>
     </row>
     <row r="16" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A16" s="43">
+      <c r="A16" s="41">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>121</v>
       </c>
       <c r="G16" s="42"/>
     </row>
     <row r="17" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A17" s="43">
+      <c r="A17" s="41">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G17" s="42"/>
     </row>
     <row r="18" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A18" s="43">
+      <c r="A18" s="41">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="42"/>
     </row>
     <row r="19" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A19" s="43">
+      <c r="A19" s="41">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>128</v>
       </c>
       <c r="G19" s="42"/>
     </row>
     <row r="20" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A20" s="43">
+      <c r="A20" s="41">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>130</v>
       </c>
       <c r="G20" s="42"/>
     </row>
     <row r="21" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A21" s="43">
+      <c r="A21" s="41">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="42"/>
     </row>
     <row r="22" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A22" s="43">
+      <c r="A22" s="41">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G22" s="42"/>
     </row>
     <row r="23" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A23" s="43">
+      <c r="A23" s="41">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="3">
-        <v>2</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="C23" s="2">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>136</v>
       </c>
       <c r="G23" s="42"/>
     </row>
     <row r="24" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A24" s="43">
+      <c r="A24" s="41">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="3">
-        <v>2</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>139</v>
       </c>
       <c r="G24" s="42"/>
     </row>
     <row r="25" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A25" s="43">
+      <c r="A25" s="41">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>3</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>141</v>
       </c>
       <c r="G25" s="42"/>
     </row>
     <row r="26" customFormat="1" ht="20.25" spans="1:7">
-      <c r="A26" s="43">
+      <c r="A26" s="41">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <v>6</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G26" s="42"/>
@@ -5687,7 +5721,7 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="6"/>
@@ -6853,4563 +6887,4563 @@
   <sheetPr/>
   <dimension ref="A1:E275"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A59" sqref="$A59:$XFD84"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A103" sqref="$A103:$XFD121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="9.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38" style="3" customWidth="1"/>
     <col min="5" max="5" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.25" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" ht="20.25" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" ht="20.25" spans="1:5">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="4" ht="20.25" spans="1:5">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:5">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="6" ht="20.25" spans="1:5">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="7" ht="20.25" spans="1:5">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="8" ht="20.25" spans="1:5">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="9" ht="20.25" spans="1:5">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="10" ht="20.25" spans="1:5">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="11" ht="20.25" spans="1:5">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="12" ht="20.25" spans="1:5">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="13" ht="20.25" spans="1:5">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="14" ht="20.25" spans="1:5">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="15" ht="20.25" spans="1:5">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="16" ht="20.25" spans="1:5">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="17" ht="20.25" spans="1:5">
-      <c r="A17" s="2">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="18" ht="20.25" spans="1:5">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="19" ht="20.25" spans="1:5">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>3</v>
       </c>
-      <c r="B19" s="3">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="20" ht="20.25" spans="1:5">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>4</v>
       </c>
-      <c r="B20" s="3">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="1:5">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>5</v>
       </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="22" ht="20.25" spans="1:5">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>6</v>
       </c>
-      <c r="B22" s="3">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="23" ht="20.25" spans="1:5">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>7</v>
       </c>
-      <c r="B23" s="3">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="24" ht="20.25" spans="1:5">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>8</v>
       </c>
-      <c r="B24" s="3">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="25" ht="20.25" spans="1:5">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>9</v>
       </c>
-      <c r="B25" s="3">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="26" ht="20.25" spans="1:5">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>10</v>
       </c>
-      <c r="B26" s="3">
-        <v>2</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="27" ht="20.25" spans="1:5">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>11</v>
       </c>
-      <c r="B27" s="3">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="2">
+        <v>2</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="28" ht="20.25" spans="1:5">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="3">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="29" ht="20.25" spans="1:5">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>13</v>
       </c>
-      <c r="B29" s="3">
-        <v>2</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="30" ht="20.25" spans="1:5">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>14</v>
       </c>
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="31" ht="20.25" spans="1:5">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>15</v>
       </c>
-      <c r="B31" s="3">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="32" ht="20.25" spans="1:5">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>16</v>
       </c>
-      <c r="B32" s="3">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="33" ht="20.25" spans="1:5">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>17</v>
       </c>
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="34" ht="20.25" spans="1:5">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>18</v>
       </c>
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="35" ht="20.25" spans="1:5">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="36" ht="20.25" spans="1:5">
-      <c r="A36" s="2">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2">
         <v>4</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="37" ht="20.25" spans="1:5">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>4</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="38" ht="20.25" spans="1:5">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>4</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>4</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="39" ht="20.25" spans="1:5">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>5</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>4</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="40" ht="20.25" spans="1:5">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>6</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>4</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="41" ht="20.25" spans="1:5">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>7</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>4</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="42" ht="20.25" spans="1:5">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>8</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="43" ht="20.25" spans="1:5">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>9</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="44" ht="20.25" spans="1:5">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>10</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>4</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="2" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="45" ht="20.25" spans="1:5">
-      <c r="A45" s="2">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2">
         <v>5</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="46" ht="20.25" spans="1:5">
-      <c r="A46" s="2">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2">
         <v>5</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="47" ht="20.25" spans="1:5">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2">
         <v>6</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="48" ht="20.25" spans="1:5">
-      <c r="A48" s="2">
-        <v>2</v>
-      </c>
-      <c r="B48" s="3">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2">
         <v>6</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="49" ht="20.25" spans="1:5">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>6</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="50" ht="20.25" spans="1:5">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>4</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>6</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="51" ht="20.25" spans="1:5">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>5</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>6</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="52" ht="20.25" spans="1:5">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>6</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>6</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="2" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="53" ht="20.25" spans="1:5">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>7</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>6</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="54" ht="20.25" spans="1:5">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>8</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>6</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="55" ht="20.25" spans="1:5">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>9</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>6</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="56" ht="20.25" spans="1:5">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>10</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="2" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="57" ht="20.25" spans="1:5">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>11</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>6</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="58" ht="20.25" spans="1:5">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>12</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>6</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="59" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
     </row>
     <row r="60" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="A60" s="1">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="61" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A61" s="2">
-        <v>2</v>
-      </c>
-      <c r="B61" s="3">
-        <v>1</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>3</v>
       </c>
-      <c r="B62" s="3">
-        <v>1</v>
-      </c>
-      <c r="C62" s="3" t="s">
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="2" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="63" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>4</v>
       </c>
-      <c r="B63" s="3">
-        <v>1</v>
-      </c>
-      <c r="C63" s="3" t="s">
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="64" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>5</v>
       </c>
-      <c r="B64" s="3">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>6</v>
       </c>
-      <c r="B65" s="3">
-        <v>1</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="E65" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="66" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>7</v>
       </c>
-      <c r="B66" s="3">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="B66" s="2">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="67" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A67" s="2">
+      <c r="A67" s="1">
         <v>8</v>
       </c>
-      <c r="B67" s="3">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3" t="s">
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="2" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="68" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A68" s="2">
+      <c r="A68" s="1">
         <v>9</v>
       </c>
-      <c r="B68" s="3">
-        <v>1</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="B68" s="2">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="69" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A69" s="2">
+      <c r="A69" s="1">
         <v>10</v>
       </c>
-      <c r="B69" s="3">
-        <v>1</v>
-      </c>
-      <c r="C69" s="3" t="s">
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="2" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="70" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A70" s="2">
+      <c r="A70" s="1">
         <v>11</v>
       </c>
-      <c r="B70" s="3">
-        <v>1</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B70" s="2">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A71" s="2">
-        <v>1</v>
-      </c>
-      <c r="B71" s="3">
-        <v>2</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="72" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A72" s="2">
-        <v>2</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2</v>
-      </c>
-      <c r="C72" s="3" t="s">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="73" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A73" s="2">
+      <c r="A73" s="1">
         <v>3</v>
       </c>
-      <c r="B73" s="3">
-        <v>2</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="B73" s="2">
+        <v>2</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="2" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="74" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A74" s="2">
+      <c r="A74" s="1">
         <v>4</v>
       </c>
-      <c r="B74" s="3">
-        <v>2</v>
-      </c>
-      <c r="C74" s="3" t="s">
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="2" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A75" s="2">
+      <c r="A75" s="1">
         <v>5</v>
       </c>
-      <c r="B75" s="3">
-        <v>2</v>
-      </c>
-      <c r="C75" s="3" t="s">
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="76" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A76" s="2">
+      <c r="A76" s="1">
         <v>6</v>
       </c>
-      <c r="B76" s="3">
-        <v>2</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="B76" s="2">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="77" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A77" s="2">
+      <c r="A77" s="1">
         <v>7</v>
       </c>
-      <c r="B77" s="3">
-        <v>2</v>
-      </c>
-      <c r="C77" s="3" t="s">
+      <c r="B77" s="2">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="78" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A78" s="2">
+      <c r="A78" s="1">
         <v>8</v>
       </c>
-      <c r="B78" s="3">
-        <v>2</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="79" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A79" s="2">
+      <c r="A79" s="1">
         <v>9</v>
       </c>
-      <c r="B79" s="3">
-        <v>2</v>
-      </c>
-      <c r="C79" s="3" t="s">
+      <c r="B79" s="2">
+        <v>2</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="80" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A80" s="2">
+      <c r="A80" s="1">
         <v>10</v>
       </c>
-      <c r="B80" s="3">
-        <v>2</v>
-      </c>
-      <c r="C80" s="3" t="s">
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="81" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A81" s="2">
+      <c r="A81" s="1">
         <v>11</v>
       </c>
-      <c r="B81" s="3">
-        <v>2</v>
-      </c>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="2">
+        <v>2</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="82" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A82" s="2">
+      <c r="A82" s="1">
         <v>12</v>
       </c>
-      <c r="B82" s="3">
-        <v>2</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="B82" s="2">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="2" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="83" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A83" s="2">
-        <v>1</v>
-      </c>
-      <c r="B83" s="3">
+      <c r="A83" s="1">
+        <v>1</v>
+      </c>
+      <c r="B83" s="2">
         <v>3</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="E83" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="20.25" spans="1:5">
-      <c r="A84" s="2">
-        <v>1</v>
-      </c>
-      <c r="B84" s="3">
+      <c r="A84" s="1">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2">
         <v>6</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="2" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="85" ht="20.25" spans="1:5">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" ht="20.25" spans="1:5">
-      <c r="A86" s="2">
-        <v>1</v>
-      </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="A86" s="1">
+        <v>1</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="2" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="87" ht="20.25" spans="1:5">
-      <c r="A87" s="2">
-        <v>2</v>
-      </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3" t="s">
+      <c r="A87" s="1">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="2" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="88" ht="20.25" spans="1:5">
-      <c r="A88" s="2">
+      <c r="A88" s="1">
         <v>3</v>
       </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3" t="s">
+      <c r="B88" s="2">
+        <v>1</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="2" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="89" ht="20.25" spans="1:5">
-      <c r="A89" s="2">
+      <c r="A89" s="1">
         <v>4</v>
       </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="2" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="90" ht="20.25" spans="1:5">
-      <c r="A90" s="2">
+      <c r="A90" s="1">
         <v>5</v>
       </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3" t="s">
+      <c r="B90" s="2">
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="2" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="91" ht="20.25" spans="1:5">
-      <c r="A91" s="2">
-        <v>1</v>
-      </c>
-      <c r="B91" s="3">
-        <v>2</v>
-      </c>
-      <c r="C91" s="3" t="s">
+      <c r="A91" s="1">
+        <v>1</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E91" s="3" t="s">
+      <c r="E91" s="2" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="92" ht="20.25" spans="1:5">
-      <c r="A92" s="2">
-        <v>2</v>
-      </c>
-      <c r="B92" s="3">
-        <v>2</v>
-      </c>
-      <c r="C92" s="3" t="s">
+      <c r="A92" s="1">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="93" ht="20.25" spans="1:5">
-      <c r="A93" s="2">
+      <c r="A93" s="1">
         <v>3</v>
       </c>
-      <c r="B93" s="3">
-        <v>2</v>
-      </c>
-      <c r="C93" s="3" t="s">
+      <c r="B93" s="2">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="94" ht="20.25" spans="1:5">
-      <c r="A94" s="2">
+      <c r="A94" s="1">
         <v>4</v>
       </c>
-      <c r="B94" s="3">
-        <v>2</v>
-      </c>
-      <c r="C94" s="3" t="s">
+      <c r="B94" s="2">
+        <v>2</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="95" ht="20.25" spans="1:5">
-      <c r="A95" s="2">
+      <c r="A95" s="1">
         <v>5</v>
       </c>
-      <c r="B95" s="3">
-        <v>2</v>
-      </c>
-      <c r="C95" s="3" t="s">
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="2" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="96" ht="20.25" spans="1:5">
-      <c r="A96" s="2">
-        <v>1</v>
-      </c>
-      <c r="B96" s="3">
+      <c r="A96" s="1">
+        <v>1</v>
+      </c>
+      <c r="B96" s="2">
         <v>3</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E96" s="3" t="s">
+      <c r="E96" s="2" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="97" ht="20.25" spans="1:5">
-      <c r="A97" s="2">
-        <v>1</v>
-      </c>
-      <c r="B97" s="3">
+      <c r="A97" s="1">
+        <v>1</v>
+      </c>
+      <c r="B97" s="2">
         <v>5</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="E97" s="3" t="s">
+      <c r="E97" s="2" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="98" ht="20.25" spans="1:5">
-      <c r="A98" s="2">
-        <v>2</v>
-      </c>
-      <c r="B98" s="3">
+      <c r="A98" s="1">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2">
         <v>5</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="E98" s="3" t="s">
+      <c r="E98" s="2" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="99" ht="20.25" spans="1:5">
-      <c r="A99" s="2">
-        <v>1</v>
-      </c>
-      <c r="B99" s="3">
+      <c r="A99" s="1">
+        <v>1</v>
+      </c>
+      <c r="B99" s="2">
         <v>6</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="2" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="100" ht="20.25" spans="1:5">
-      <c r="A100" s="2">
-        <v>2</v>
-      </c>
-      <c r="B100" s="3">
+      <c r="A100" s="1">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2">
         <v>6</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="2" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="101" ht="20.25" spans="1:5">
-      <c r="A101" s="2">
+      <c r="A101" s="1">
         <v>3</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>6</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="2" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="102" ht="20.25" spans="1:5">
-      <c r="A102" s="2">
+      <c r="A102" s="1">
         <v>4</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>6</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="103" ht="20.25" spans="1:5">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
     </row>
     <row r="104" ht="20.25" spans="1:5">
-      <c r="A104" s="2">
-        <v>1</v>
-      </c>
-      <c r="B104" s="3">
-        <v>1</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="A104" s="1">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="2" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="105" ht="20.25" spans="1:5">
-      <c r="A105" s="2">
-        <v>2</v>
-      </c>
-      <c r="B105" s="3">
-        <v>1</v>
-      </c>
-      <c r="C105" s="3" t="s">
+      <c r="A105" s="1">
+        <v>2</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E105" s="3" t="s">
+      <c r="E105" s="2" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="106" ht="20.25" spans="1:5">
-      <c r="A106" s="2">
+      <c r="A106" s="1">
         <v>3</v>
       </c>
-      <c r="B106" s="3">
-        <v>1</v>
-      </c>
-      <c r="C106" s="3" t="s">
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="2" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="107" ht="20.25" spans="1:5">
-      <c r="A107" s="2">
+      <c r="A107" s="1">
         <v>4</v>
       </c>
-      <c r="B107" s="3">
-        <v>1</v>
-      </c>
-      <c r="C107" s="3" t="s">
+      <c r="B107" s="2">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E107" s="3" t="s">
+      <c r="E107" s="2" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="108" ht="20.25" spans="1:5">
-      <c r="A108" s="2">
+      <c r="A108" s="1">
         <v>5</v>
       </c>
-      <c r="B108" s="3">
-        <v>1</v>
-      </c>
-      <c r="C108" s="3" t="s">
+      <c r="B108" s="2">
+        <v>1</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="2" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="109" ht="20.25" spans="1:5">
-      <c r="A109" s="2">
+      <c r="A109" s="1">
         <v>6</v>
       </c>
-      <c r="B109" s="3">
-        <v>1</v>
-      </c>
-      <c r="C109" s="3" t="s">
+      <c r="B109" s="2">
+        <v>1</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="110" ht="20.25" spans="1:5">
-      <c r="A110" s="2">
+      <c r="A110" s="1">
         <v>7</v>
       </c>
-      <c r="B110" s="3">
-        <v>1</v>
-      </c>
-      <c r="C110" s="3" t="s">
+      <c r="B110" s="2">
+        <v>1</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="2" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="111" ht="20.25" spans="1:5">
-      <c r="A111" s="2">
+      <c r="A111" s="1">
         <v>8</v>
       </c>
-      <c r="B111" s="3">
-        <v>1</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="2" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="112" ht="20.25" spans="1:5">
-      <c r="A112" s="2">
+      <c r="A112" s="1">
         <v>9</v>
       </c>
-      <c r="B112" s="3">
-        <v>1</v>
-      </c>
-      <c r="C112" s="3" t="s">
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E112" s="3" t="s">
+      <c r="E112" s="2" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="113" ht="20.25" spans="1:5">
-      <c r="A113" s="2">
+      <c r="A113" s="1">
         <v>10</v>
       </c>
-      <c r="B113" s="3">
-        <v>1</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E113" s="3" t="s">
+      <c r="E113" s="2" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="114" ht="20.25" spans="1:5">
-      <c r="A114" s="2">
+      <c r="A114" s="1">
         <v>11</v>
       </c>
-      <c r="B114" s="3">
-        <v>1</v>
-      </c>
-      <c r="C114" s="3" t="s">
+      <c r="B114" s="2">
+        <v>1</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="2" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="115" ht="20.25" spans="1:5">
-      <c r="A115" s="2">
-        <v>1</v>
-      </c>
-      <c r="B115" s="3">
-        <v>2</v>
-      </c>
-      <c r="C115" s="3" t="s">
+      <c r="A115" s="1">
+        <v>1</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="2" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="116" ht="20.25" spans="1:5">
-      <c r="A116" s="2">
-        <v>2</v>
-      </c>
-      <c r="B116" s="3">
-        <v>2</v>
-      </c>
-      <c r="C116" s="3" t="s">
+      <c r="A116" s="1">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="2" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="117" ht="20.25" spans="1:5">
-      <c r="A117" s="2">
+      <c r="A117" s="1">
         <v>3</v>
       </c>
-      <c r="B117" s="3">
-        <v>2</v>
-      </c>
-      <c r="C117" s="3" t="s">
+      <c r="B117" s="2">
+        <v>2</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="118" ht="20.25" spans="1:5">
-      <c r="A118" s="2">
+      <c r="A118" s="1">
         <v>4</v>
       </c>
-      <c r="B118" s="3">
-        <v>2</v>
-      </c>
-      <c r="C118" s="3" t="s">
+      <c r="B118" s="2">
+        <v>2</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E118" s="2" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="119" ht="20.25" spans="1:5">
-      <c r="A119" s="2">
+      <c r="A119" s="1">
         <v>5</v>
       </c>
-      <c r="B119" s="3">
-        <v>2</v>
-      </c>
-      <c r="C119" s="3" t="s">
+      <c r="B119" s="2">
+        <v>2</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E119" s="3" t="s">
+      <c r="E119" s="2" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="120" ht="20.25" spans="1:5">
-      <c r="A120" s="2">
+      <c r="A120" s="1">
         <v>6</v>
       </c>
-      <c r="B120" s="3">
-        <v>2</v>
-      </c>
-      <c r="C120" s="3" t="s">
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E120" s="3" t="s">
+      <c r="E120" s="2" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="121" ht="20.25" spans="1:5">
-      <c r="A121" s="2">
-        <v>1</v>
-      </c>
-      <c r="B121" s="3">
+      <c r="A121" s="1">
+        <v>1</v>
+      </c>
+      <c r="B121" s="2">
         <v>6</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="2" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="122" ht="20.25" spans="1:5">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
     </row>
     <row r="123" ht="20.25" spans="1:5">
-      <c r="A123" s="2">
-        <v>1</v>
-      </c>
-      <c r="B123" s="3">
-        <v>1</v>
-      </c>
-      <c r="C123" s="3" t="s">
+      <c r="A123" s="1">
+        <v>1</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1</v>
+      </c>
+      <c r="C123" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E123" s="2" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="124" ht="20.25" spans="1:5">
-      <c r="A124" s="2">
-        <v>2</v>
-      </c>
-      <c r="B124" s="3">
-        <v>1</v>
-      </c>
-      <c r="C124" s="3" t="s">
+      <c r="A124" s="1">
+        <v>2</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="125" ht="20.25" spans="1:5">
-      <c r="A125" s="2">
+      <c r="A125" s="1">
         <v>3</v>
       </c>
-      <c r="B125" s="3">
-        <v>1</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="B125" s="2">
+        <v>1</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="E125" s="2" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="126" ht="20.25" spans="1:5">
-      <c r="A126" s="2">
+      <c r="A126" s="1">
         <v>4</v>
       </c>
-      <c r="B126" s="3">
-        <v>1</v>
-      </c>
-      <c r="C126" s="3" t="s">
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="E126" s="2" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="127" ht="20.25" spans="1:5">
-      <c r="A127" s="2">
+      <c r="A127" s="1">
         <v>5</v>
       </c>
-      <c r="B127" s="3">
-        <v>1</v>
-      </c>
-      <c r="C127" s="3" t="s">
+      <c r="B127" s="2">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="E127" s="2" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="128" ht="20.25" spans="1:5">
-      <c r="A128" s="2">
+      <c r="A128" s="1">
         <v>6</v>
       </c>
-      <c r="B128" s="3">
-        <v>1</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="B128" s="2">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="2" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="129" ht="20.25" spans="1:5">
-      <c r="A129" s="2">
+      <c r="A129" s="1">
         <v>7</v>
       </c>
-      <c r="B129" s="3">
-        <v>1</v>
-      </c>
-      <c r="C129" s="3" t="s">
+      <c r="B129" s="2">
+        <v>1</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="2" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="130" ht="20.25" spans="1:5">
-      <c r="A130" s="2">
+      <c r="A130" s="1">
         <v>8</v>
       </c>
-      <c r="B130" s="3">
-        <v>1</v>
-      </c>
-      <c r="C130" s="3" t="s">
+      <c r="B130" s="2">
+        <v>1</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="2" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="131" ht="20.25" spans="1:5">
-      <c r="A131" s="2">
+      <c r="A131" s="1">
         <v>9</v>
       </c>
-      <c r="B131" s="3">
-        <v>1</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="E131" s="3" t="s">
+      <c r="E131" s="2" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="132" ht="20.25" spans="1:5">
-      <c r="A132" s="2">
-        <v>1</v>
-      </c>
-      <c r="B132" s="3">
-        <v>2</v>
-      </c>
-      <c r="C132" s="3" t="s">
+      <c r="A132" s="1">
+        <v>1</v>
+      </c>
+      <c r="B132" s="2">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="E132" s="3" t="s">
+      <c r="E132" s="2" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="133" ht="20.25" spans="1:5">
-      <c r="A133" s="2">
-        <v>2</v>
-      </c>
-      <c r="B133" s="3">
-        <v>2</v>
-      </c>
-      <c r="C133" s="3" t="s">
+      <c r="A133" s="1">
+        <v>2</v>
+      </c>
+      <c r="B133" s="2">
+        <v>2</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="E133" s="2" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="134" ht="20.25" spans="1:5">
-      <c r="A134" s="2">
+      <c r="A134" s="1">
         <v>3</v>
       </c>
-      <c r="B134" s="3">
-        <v>2</v>
-      </c>
-      <c r="C134" s="3" t="s">
+      <c r="B134" s="2">
+        <v>2</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="E134" s="2" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="135" ht="20.25" spans="1:5">
-      <c r="A135" s="2">
+      <c r="A135" s="1">
         <v>4</v>
       </c>
-      <c r="B135" s="3">
-        <v>2</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="B135" s="2">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="E135" s="2" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="136" ht="20.25" spans="1:5">
-      <c r="A136" s="2">
+      <c r="A136" s="1">
         <v>5</v>
       </c>
-      <c r="B136" s="3">
-        <v>2</v>
-      </c>
-      <c r="C136" s="3" t="s">
+      <c r="B136" s="2">
+        <v>2</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E136" s="2" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="137" ht="20.25" spans="1:5">
-      <c r="A137" s="2">
+      <c r="A137" s="1">
         <v>6</v>
       </c>
-      <c r="B137" s="3">
-        <v>2</v>
-      </c>
-      <c r="C137" s="3" t="s">
+      <c r="B137" s="2">
+        <v>2</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="E137" s="2" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="138" ht="20.25" spans="1:5">
-      <c r="A138" s="2">
+      <c r="A138" s="1">
         <v>7</v>
       </c>
-      <c r="B138" s="3">
-        <v>2</v>
-      </c>
-      <c r="C138" s="3" t="s">
+      <c r="B138" s="2">
+        <v>2</v>
+      </c>
+      <c r="C138" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="E138" s="2" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="139" ht="20.25" spans="1:5">
-      <c r="A139" s="2">
+      <c r="A139" s="1">
         <v>8</v>
       </c>
-      <c r="B139" s="3">
-        <v>2</v>
-      </c>
-      <c r="C139" s="3" t="s">
+      <c r="B139" s="2">
+        <v>2</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="E139" s="2" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="140" ht="20.25" spans="1:5">
-      <c r="A140" s="2">
+      <c r="A140" s="1">
         <v>9</v>
       </c>
-      <c r="B140" s="3">
-        <v>2</v>
-      </c>
-      <c r="C140" s="3" t="s">
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="E140" s="2" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="141" ht="20.25" spans="1:5">
-      <c r="A141" s="2">
+      <c r="A141" s="1">
         <v>10</v>
       </c>
-      <c r="B141" s="3">
-        <v>2</v>
-      </c>
-      <c r="C141" s="3" t="s">
+      <c r="B141" s="2">
+        <v>2</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="142" ht="20.25" spans="1:5">
-      <c r="A142" s="2">
+      <c r="A142" s="1">
         <v>11</v>
       </c>
-      <c r="B142" s="3">
-        <v>2</v>
-      </c>
-      <c r="C142" s="3" t="s">
+      <c r="B142" s="2">
+        <v>2</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="2" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="143" ht="20.25" spans="1:5">
-      <c r="A143" s="2">
+      <c r="A143" s="1">
         <v>12</v>
       </c>
-      <c r="B143" s="3">
-        <v>2</v>
-      </c>
-      <c r="C143" s="3" t="s">
+      <c r="B143" s="2">
+        <v>2</v>
+      </c>
+      <c r="C143" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="2" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="144" ht="20.25" spans="1:5">
-      <c r="A144" s="2">
-        <v>1</v>
-      </c>
-      <c r="B144" s="3">
+      <c r="A144" s="1">
+        <v>1</v>
+      </c>
+      <c r="B144" s="2">
         <v>5</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="2" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="145" ht="20.25" spans="1:5">
-      <c r="A145" s="2">
-        <v>2</v>
-      </c>
-      <c r="B145" s="3">
+      <c r="A145" s="1">
+        <v>2</v>
+      </c>
+      <c r="B145" s="2">
         <v>5</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="2" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="146" ht="20.25" spans="1:5">
-      <c r="A146" s="2">
+      <c r="A146" s="1">
         <v>3</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>5</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="E146" s="3" t="s">
+      <c r="E146" s="2" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="147" ht="20.25" spans="1:5">
-      <c r="A147" s="2">
+      <c r="A147" s="1">
         <v>4</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>5</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="E147" s="2" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="148" ht="20.25" spans="1:5">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
     </row>
     <row r="149" ht="20.25" spans="1:5">
-      <c r="A149" s="2">
-        <v>1</v>
-      </c>
-      <c r="B149" s="3">
+      <c r="A149" s="1">
+        <v>1</v>
+      </c>
+      <c r="B149" s="2">
         <v>3</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="E149" s="2" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="150" ht="20.25" spans="1:5">
-      <c r="A150" s="2">
-        <v>2</v>
-      </c>
-      <c r="B150" s="3">
+      <c r="A150" s="1">
+        <v>2</v>
+      </c>
+      <c r="B150" s="2">
         <v>3</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="E150" s="2" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="151" ht="20.25" spans="1:5">
-      <c r="A151" s="2">
+      <c r="A151" s="1">
         <v>3</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>3</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E151" s="2" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="152" ht="20.25" spans="1:5">
-      <c r="A152" s="2">
+      <c r="A152" s="1">
         <v>4</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>3</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="E152" s="2" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="153" ht="20.25" spans="1:5">
-      <c r="A153" s="2">
+      <c r="A153" s="1">
         <v>5</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>3</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E153" s="2" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="154" ht="20.25" spans="1:5">
-      <c r="A154" s="2">
+      <c r="A154" s="1">
         <v>6</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>3</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="E154" s="2" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="155" ht="20.25" spans="1:5">
-      <c r="A155" s="2">
+      <c r="A155" s="1">
         <v>7</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>3</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="E155" s="2" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="156" ht="20.25" spans="1:5">
-      <c r="A156" s="2">
+      <c r="A156" s="1">
         <v>8</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>3</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="E156" s="2" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="157" ht="20.25" spans="1:5">
-      <c r="A157" s="2">
+      <c r="A157" s="1">
         <v>9</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>3</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="2" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="158" ht="20.25" spans="1:5">
-      <c r="A158" s="2">
+      <c r="A158" s="1">
         <v>10</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>3</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="159" ht="20.25" spans="1:5">
-      <c r="A159" s="2">
+      <c r="A159" s="1">
         <v>11</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>3</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="E159" s="2" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="160" ht="20.25" spans="1:5">
-      <c r="A160" s="2">
+      <c r="A160" s="1">
         <v>12</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>3</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="E160" s="2" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="161" ht="20.25" spans="1:5">
-      <c r="A161" s="2">
+      <c r="A161" s="1">
         <v>13</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>3</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="2" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="162" ht="20.25" spans="1:5">
-      <c r="A162" s="2">
+      <c r="A162" s="1">
         <v>14</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>3</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="2" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="163" ht="20.25" spans="1:5">
-      <c r="A163" s="2">
+      <c r="A163" s="1">
         <v>15</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>3</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="E163" s="2" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="164" ht="20.25" spans="1:5">
-      <c r="A164" s="2">
+      <c r="A164" s="1">
         <v>16</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>3</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="2" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="165" ht="20.25" spans="1:5">
-      <c r="A165" s="2">
+      <c r="A165" s="1">
         <v>17</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>3</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="2" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="166" ht="20.25" spans="1:5">
-      <c r="A166" s="2">
+      <c r="A166" s="1">
         <v>18</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>3</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="2" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="167" ht="20.25" spans="1:5">
-      <c r="A167" s="2">
+      <c r="A167" s="1">
         <v>19</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>3</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="2" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="168" ht="20.25" spans="1:5">
-      <c r="A168" s="2">
+      <c r="A168" s="1">
         <v>20</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>3</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="2" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="169" ht="20.25" spans="1:5">
-      <c r="A169" s="2">
+      <c r="A169" s="1">
         <v>21</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>3</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="2" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="170" ht="20.25" spans="1:5">
-      <c r="A170" s="2">
+      <c r="A170" s="1">
         <v>22</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>3</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="2" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="171" ht="20.25" spans="1:5">
-      <c r="A171" s="2">
+      <c r="A171" s="1">
         <v>23</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>3</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="2" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="172" ht="20.25" spans="1:5">
-      <c r="A172" s="2">
-        <v>1</v>
-      </c>
-      <c r="B172" s="3">
+      <c r="A172" s="1">
+        <v>1</v>
+      </c>
+      <c r="B172" s="2">
         <v>5</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="2" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="173" ht="20.25" spans="1:5">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B173" s="3"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
     </row>
     <row r="174" ht="20.25" spans="1:5">
-      <c r="A174" s="2">
-        <v>1</v>
-      </c>
-      <c r="B174" s="3">
-        <v>1</v>
-      </c>
-      <c r="C174" s="3" t="s">
+      <c r="A174" s="1">
+        <v>1</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="2" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="175" ht="20.25" spans="1:5">
-      <c r="A175" s="2">
-        <v>2</v>
-      </c>
-      <c r="B175" s="3">
-        <v>1</v>
-      </c>
-      <c r="C175" s="3" t="s">
+      <c r="A175" s="1">
+        <v>2</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="2" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="176" ht="20.25" spans="1:5">
-      <c r="A176" s="2">
+      <c r="A176" s="1">
         <v>3</v>
       </c>
-      <c r="B176" s="3">
-        <v>1</v>
-      </c>
-      <c r="C176" s="3" t="s">
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="2" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="177" ht="20.25" spans="1:5">
-      <c r="A177" s="2">
+      <c r="A177" s="1">
         <v>4</v>
       </c>
-      <c r="B177" s="3">
-        <v>1</v>
-      </c>
-      <c r="C177" s="3" t="s">
+      <c r="B177" s="2">
+        <v>1</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="E177" s="2" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="178" ht="20.25" spans="1:5">
-      <c r="A178" s="2">
+      <c r="A178" s="1">
         <v>5</v>
       </c>
-      <c r="B178" s="3">
-        <v>1</v>
-      </c>
-      <c r="C178" s="3" t="s">
+      <c r="B178" s="2">
+        <v>1</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="E178" s="2" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="179" ht="20.25" spans="1:5">
-      <c r="A179" s="2">
+      <c r="A179" s="1">
         <v>6</v>
       </c>
-      <c r="B179" s="3">
-        <v>1</v>
-      </c>
-      <c r="C179" s="3" t="s">
+      <c r="B179" s="2">
+        <v>1</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E179" s="2" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="180" ht="20.25" spans="1:5">
-      <c r="A180" s="2">
+      <c r="A180" s="1">
         <v>7</v>
       </c>
-      <c r="B180" s="3">
-        <v>1</v>
-      </c>
-      <c r="C180" s="3" t="s">
+      <c r="B180" s="2">
+        <v>1</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="2" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="181" ht="20.25" spans="1:5">
-      <c r="A181" s="2">
+      <c r="A181" s="1">
         <v>8</v>
       </c>
-      <c r="B181" s="3">
-        <v>1</v>
-      </c>
-      <c r="C181" s="3" t="s">
+      <c r="B181" s="2">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E181" s="2" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="182" ht="20.25" spans="1:5">
-      <c r="A182" s="2">
+      <c r="A182" s="1">
         <v>9</v>
       </c>
-      <c r="B182" s="3">
-        <v>1</v>
-      </c>
-      <c r="C182" s="3" t="s">
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="E182" s="2" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="183" ht="20.25" spans="1:5">
-      <c r="A183" s="2">
+      <c r="A183" s="1">
         <v>10</v>
       </c>
-      <c r="B183" s="3">
-        <v>1</v>
-      </c>
-      <c r="C183" s="3" t="s">
+      <c r="B183" s="2">
+        <v>1</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="E183" s="2" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="184" ht="20.25" spans="1:5">
-      <c r="A184" s="2">
+      <c r="A184" s="1">
         <v>11</v>
       </c>
-      <c r="B184" s="3">
-        <v>1</v>
-      </c>
-      <c r="C184" s="3" t="s">
+      <c r="B184" s="2">
+        <v>1</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="E184" s="2" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="185" ht="20.25" spans="1:5">
-      <c r="A185" s="2">
+      <c r="A185" s="1">
         <v>12</v>
       </c>
-      <c r="B185" s="3">
-        <v>1</v>
-      </c>
-      <c r="C185" s="3" t="s">
+      <c r="B185" s="2">
+        <v>1</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="2" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="186" ht="20.25" spans="1:5">
-      <c r="A186" s="2">
-        <v>1</v>
-      </c>
-      <c r="B186" s="3">
-        <v>2</v>
-      </c>
-      <c r="C186" s="3" t="s">
+      <c r="A186" s="1">
+        <v>1</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="2" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="187" ht="20.25" spans="1:5">
-      <c r="A187" s="2">
-        <v>2</v>
-      </c>
-      <c r="B187" s="3">
-        <v>2</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="A187" s="1">
+        <v>2</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="2" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="188" ht="20.25" spans="1:5">
-      <c r="A188" s="2">
+      <c r="A188" s="1">
         <v>3</v>
       </c>
-      <c r="B188" s="3">
-        <v>2</v>
-      </c>
-      <c r="C188" s="3" t="s">
+      <c r="B188" s="2">
+        <v>2</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E188" s="2" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="189" ht="20.25" spans="1:5">
-      <c r="A189" s="2">
+      <c r="A189" s="1">
         <v>4</v>
       </c>
-      <c r="B189" s="3">
-        <v>2</v>
-      </c>
-      <c r="C189" s="3" t="s">
+      <c r="B189" s="2">
+        <v>2</v>
+      </c>
+      <c r="C189" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="2" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="190" ht="20.25" spans="1:5">
-      <c r="A190" s="2">
+      <c r="A190" s="1">
         <v>5</v>
       </c>
-      <c r="B190" s="3">
-        <v>2</v>
-      </c>
-      <c r="C190" s="3" t="s">
+      <c r="B190" s="2">
+        <v>2</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="E190" s="2" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="191" ht="20.25" spans="1:5">
-      <c r="A191" s="2">
+      <c r="A191" s="1">
         <v>6</v>
       </c>
-      <c r="B191" s="3">
-        <v>2</v>
-      </c>
-      <c r="C191" s="3" t="s">
+      <c r="B191" s="2">
+        <v>2</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="E191" s="2" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="192" ht="20.25" spans="1:5">
-      <c r="A192" s="2">
+      <c r="A192" s="1">
         <v>7</v>
       </c>
-      <c r="B192" s="3">
-        <v>2</v>
-      </c>
-      <c r="C192" s="3" t="s">
+      <c r="B192" s="2">
+        <v>2</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="2" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="193" ht="20.25" spans="1:5">
-      <c r="A193" s="2">
+      <c r="A193" s="1">
         <v>8</v>
       </c>
-      <c r="B193" s="3">
-        <v>2</v>
-      </c>
-      <c r="C193" s="3" t="s">
+      <c r="B193" s="2">
+        <v>2</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="E193" s="3" t="s">
+      <c r="E193" s="2" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="194" ht="20.25" spans="1:5">
-      <c r="A194" s="2">
+      <c r="A194" s="1">
         <v>9</v>
       </c>
-      <c r="B194" s="3">
-        <v>2</v>
-      </c>
-      <c r="C194" s="3" t="s">
+      <c r="B194" s="2">
+        <v>2</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="E194" s="3" t="s">
+      <c r="E194" s="2" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="195" ht="20.25" spans="1:5">
-      <c r="A195" s="2">
-        <v>1</v>
-      </c>
-      <c r="B195" s="3">
+      <c r="A195" s="1">
+        <v>1</v>
+      </c>
+      <c r="B195" s="2">
         <v>3</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E195" s="3" t="s">
+      <c r="E195" s="2" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="196" ht="20.25" spans="1:5">
-      <c r="A196" s="2">
-        <v>2</v>
-      </c>
-      <c r="B196" s="3">
+      <c r="A196" s="1">
+        <v>2</v>
+      </c>
+      <c r="B196" s="2">
         <v>3</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E196" s="3" t="s">
+      <c r="E196" s="2" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="197" ht="20.25" spans="1:5">
-      <c r="A197" s="2">
-        <v>1</v>
-      </c>
-      <c r="B197" s="3">
+      <c r="A197" s="1">
+        <v>1</v>
+      </c>
+      <c r="B197" s="2">
         <v>4</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="E197" s="2" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="198" ht="20.25" spans="1:5">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B198" s="3"/>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
     </row>
     <row r="199" ht="20.25" spans="1:5">
-      <c r="A199" s="2">
-        <v>1</v>
-      </c>
-      <c r="B199" s="3">
-        <v>1</v>
-      </c>
-      <c r="C199" s="3" t="s">
+      <c r="A199" s="1">
+        <v>1</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="E199" s="3" t="s">
+      <c r="E199" s="2" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="200" ht="20.25" spans="1:5">
-      <c r="A200" s="2">
-        <v>2</v>
-      </c>
-      <c r="B200" s="3">
-        <v>1</v>
-      </c>
-      <c r="C200" s="3" t="s">
+      <c r="A200" s="1">
+        <v>2</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1</v>
+      </c>
+      <c r="C200" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E200" s="2" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="201" ht="20.25" spans="1:5">
-      <c r="A201" s="2">
-        <v>1</v>
-      </c>
-      <c r="B201" s="3">
-        <v>2</v>
-      </c>
-      <c r="C201" s="3" t="s">
+      <c r="A201" s="1">
+        <v>1</v>
+      </c>
+      <c r="B201" s="2">
+        <v>2</v>
+      </c>
+      <c r="C201" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="E201" s="3" t="s">
+      <c r="E201" s="2" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="202" ht="20.25" spans="1:5">
-      <c r="A202" s="2">
-        <v>2</v>
-      </c>
-      <c r="B202" s="3">
-        <v>2</v>
-      </c>
-      <c r="C202" s="3" t="s">
+      <c r="A202" s="1">
+        <v>2</v>
+      </c>
+      <c r="B202" s="2">
+        <v>2</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="E202" s="3" t="s">
+      <c r="E202" s="2" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="203" ht="20.25" spans="1:5">
-      <c r="A203" s="2">
+      <c r="A203" s="1">
         <v>3</v>
       </c>
-      <c r="B203" s="3">
-        <v>2</v>
-      </c>
-      <c r="C203" s="3" t="s">
+      <c r="B203" s="2">
+        <v>2</v>
+      </c>
+      <c r="C203" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="E203" s="3" t="s">
+      <c r="E203" s="2" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="204" ht="20.25" spans="1:5">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
     </row>
     <row r="205" ht="20.25" spans="1:5">
-      <c r="A205" s="2">
-        <v>1</v>
-      </c>
-      <c r="B205" s="3">
-        <v>2</v>
-      </c>
-      <c r="C205" s="3" t="s">
+      <c r="A205" s="1">
+        <v>1</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2</v>
+      </c>
+      <c r="C205" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="2" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="206" ht="20.25" spans="1:5">
-      <c r="A206" s="2">
-        <v>2</v>
-      </c>
-      <c r="B206" s="3">
-        <v>2</v>
-      </c>
-      <c r="C206" s="3" t="s">
+      <c r="A206" s="1">
+        <v>2</v>
+      </c>
+      <c r="B206" s="2">
+        <v>2</v>
+      </c>
+      <c r="C206" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="E206" s="3" t="s">
+      <c r="E206" s="2" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="207" ht="20.25" spans="1:5">
-      <c r="A207" s="2">
+      <c r="A207" s="1">
         <v>3</v>
       </c>
-      <c r="B207" s="3">
-        <v>2</v>
-      </c>
-      <c r="C207" s="3" t="s">
+      <c r="B207" s="2">
+        <v>2</v>
+      </c>
+      <c r="C207" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="E207" s="2" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="208" ht="20.25" spans="1:5">
-      <c r="A208" s="2">
+      <c r="A208" s="1">
         <v>4</v>
       </c>
-      <c r="B208" s="3">
-        <v>2</v>
-      </c>
-      <c r="C208" s="3" t="s">
+      <c r="B208" s="2">
+        <v>2</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="E208" s="3" t="s">
+      <c r="E208" s="2" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="209" ht="20.25" spans="1:5">
-      <c r="A209" s="2">
+      <c r="A209" s="1">
         <v>5</v>
       </c>
-      <c r="B209" s="3">
-        <v>2</v>
-      </c>
-      <c r="C209" s="3" t="s">
+      <c r="B209" s="2">
+        <v>2</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D209" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="E209" s="3" t="s">
+      <c r="E209" s="2" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="210" ht="20.25" spans="1:5">
-      <c r="A210" s="2">
+      <c r="A210" s="1">
         <v>6</v>
       </c>
-      <c r="B210" s="3">
-        <v>2</v>
-      </c>
-      <c r="C210" s="3" t="s">
+      <c r="B210" s="2">
+        <v>2</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="E210" s="3" t="s">
+      <c r="E210" s="2" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="211" ht="20.25" spans="1:5">
-      <c r="A211" s="2">
-        <v>1</v>
-      </c>
-      <c r="B211" s="3">
+      <c r="A211" s="1">
+        <v>1</v>
+      </c>
+      <c r="B211" s="2">
         <v>3</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="E211" s="3" t="s">
+      <c r="E211" s="2" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="212" ht="20.25" spans="1:5">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
     </row>
     <row r="213" ht="20.25" spans="1:5">
-      <c r="A213" s="2">
-        <v>1</v>
-      </c>
-      <c r="B213" s="3">
+      <c r="A213" s="1">
+        <v>1</v>
+      </c>
+      <c r="B213" s="2">
         <v>3</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="E213" s="3" t="s">
+      <c r="E213" s="2" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="214" ht="20.25" spans="1:5">
-      <c r="A214" s="2">
-        <v>2</v>
-      </c>
-      <c r="B214" s="3">
+      <c r="A214" s="1">
+        <v>2</v>
+      </c>
+      <c r="B214" s="2">
         <v>3</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="E214" s="3" t="s">
+      <c r="E214" s="2" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="215" ht="20.25" spans="1:5">
-      <c r="A215" s="2">
+      <c r="A215" s="1">
         <v>3</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="2">
         <v>3</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D215" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="E215" s="3" t="s">
+      <c r="E215" s="2" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="216" ht="20.25" spans="1:5">
-      <c r="A216" s="2">
+      <c r="A216" s="1">
         <v>4</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="2">
         <v>3</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="E216" s="3" t="s">
+      <c r="E216" s="2" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="217" ht="20.25" spans="1:5">
-      <c r="A217" s="2">
+      <c r="A217" s="1">
         <v>5</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="2">
         <v>3</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E217" s="3" t="s">
+      <c r="E217" s="2" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="218" ht="20.25" spans="1:5">
-      <c r="A218" s="2">
+      <c r="A218" s="1">
         <v>6</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="2">
         <v>3</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="E218" s="3" t="s">
+      <c r="E218" s="2" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="219" ht="20.25" spans="1:5">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
     </row>
     <row r="220" ht="20.25" spans="1:5">
-      <c r="A220" s="2">
-        <v>1</v>
-      </c>
-      <c r="B220" s="3">
-        <v>2</v>
-      </c>
-      <c r="C220" s="3" t="s">
+      <c r="A220" s="1">
+        <v>1</v>
+      </c>
+      <c r="B220" s="2">
+        <v>2</v>
+      </c>
+      <c r="C220" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D220" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="E220" s="3" t="s">
+      <c r="E220" s="2" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="221" ht="20.25" spans="1:5">
-      <c r="A221" s="2">
-        <v>2</v>
-      </c>
-      <c r="B221" s="3">
-        <v>2</v>
-      </c>
-      <c r="C221" s="3" t="s">
+      <c r="A221" s="1">
+        <v>2</v>
+      </c>
+      <c r="B221" s="2">
+        <v>2</v>
+      </c>
+      <c r="C221" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D221" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="E221" s="3" t="s">
+      <c r="E221" s="2" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="222" ht="20.25" spans="1:5">
-      <c r="A222" s="2">
+      <c r="A222" s="1">
         <v>3</v>
       </c>
-      <c r="B222" s="3">
-        <v>2</v>
-      </c>
-      <c r="C222" s="3" t="s">
+      <c r="B222" s="2">
+        <v>2</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D222" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="E222" s="3" t="s">
+      <c r="E222" s="2" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="223" ht="20.25" spans="1:5">
-      <c r="A223" s="2">
+      <c r="A223" s="1">
         <v>4</v>
       </c>
-      <c r="B223" s="3">
-        <v>2</v>
-      </c>
-      <c r="C223" s="3" t="s">
+      <c r="B223" s="2">
+        <v>2</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="E223" s="3" t="s">
+      <c r="E223" s="2" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="224" ht="20.25" spans="1:5">
-      <c r="A224" s="2">
+      <c r="A224" s="1">
         <v>5</v>
       </c>
-      <c r="B224" s="3">
-        <v>2</v>
-      </c>
-      <c r="C224" s="3" t="s">
+      <c r="B224" s="2">
+        <v>2</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E224" s="2" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="225" ht="20.25" spans="1:5">
-      <c r="A225" s="2">
+      <c r="A225" s="1">
         <v>6</v>
       </c>
-      <c r="B225" s="3">
-        <v>2</v>
-      </c>
-      <c r="C225" s="3" t="s">
+      <c r="B225" s="2">
+        <v>2</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="E225" s="3" t="s">
+      <c r="E225" s="2" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="226" ht="20.25" spans="1:5">
-      <c r="A226" s="2">
+      <c r="A226" s="1">
         <v>7</v>
       </c>
-      <c r="B226" s="3">
-        <v>2</v>
-      </c>
-      <c r="C226" s="3" t="s">
+      <c r="B226" s="2">
+        <v>2</v>
+      </c>
+      <c r="C226" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="E226" s="3" t="s">
+      <c r="E226" s="2" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="227" ht="20.25" spans="1:5">
-      <c r="A227" s="2">
+      <c r="A227" s="1">
         <v>8</v>
       </c>
-      <c r="B227" s="3">
-        <v>2</v>
-      </c>
-      <c r="C227" s="3" t="s">
+      <c r="B227" s="2">
+        <v>2</v>
+      </c>
+      <c r="C227" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="E227" s="3" t="s">
+      <c r="E227" s="2" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="228" ht="20.25" spans="1:5">
-      <c r="A228" s="2">
+      <c r="A228" s="1">
         <v>9</v>
       </c>
-      <c r="B228" s="3">
-        <v>2</v>
-      </c>
-      <c r="C228" s="3" t="s">
+      <c r="B228" s="2">
+        <v>2</v>
+      </c>
+      <c r="C228" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="E228" s="3" t="s">
+      <c r="E228" s="2" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="229" ht="20.25" spans="1:5">
-      <c r="A229" s="2">
+      <c r="A229" s="1">
         <v>10</v>
       </c>
-      <c r="B229" s="3">
-        <v>2</v>
-      </c>
-      <c r="C229" s="3" t="s">
+      <c r="B229" s="2">
+        <v>2</v>
+      </c>
+      <c r="C229" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="E229" s="3" t="s">
+      <c r="E229" s="2" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="230" ht="20.25" spans="1:5">
-      <c r="A230" s="2">
+      <c r="A230" s="1">
         <v>11</v>
       </c>
-      <c r="B230" s="3">
-        <v>2</v>
-      </c>
-      <c r="C230" s="3" t="s">
+      <c r="B230" s="2">
+        <v>2</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="E230" s="3" t="s">
+      <c r="E230" s="2" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="231" ht="20.25" spans="1:5">
-      <c r="A231" s="2">
+      <c r="A231" s="1">
         <v>12</v>
       </c>
-      <c r="B231" s="3">
-        <v>2</v>
-      </c>
-      <c r="C231" s="3" t="s">
+      <c r="B231" s="2">
+        <v>2</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="E231" s="3" t="s">
+      <c r="E231" s="2" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="232" ht="20.25" spans="1:5">
-      <c r="A232" s="2">
+      <c r="A232" s="1">
         <v>13</v>
       </c>
-      <c r="B232" s="3">
-        <v>2</v>
-      </c>
-      <c r="C232" s="3" t="s">
+      <c r="B232" s="2">
+        <v>2</v>
+      </c>
+      <c r="C232" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="E232" s="3" t="s">
+      <c r="E232" s="2" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="233" ht="20.25" spans="1:5">
-      <c r="A233" s="2">
+      <c r="A233" s="1">
         <v>14</v>
       </c>
-      <c r="B233" s="3">
-        <v>2</v>
-      </c>
-      <c r="C233" s="3" t="s">
+      <c r="B233" s="2">
+        <v>2</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E233" s="3" t="s">
+      <c r="E233" s="2" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="234" ht="20.25" spans="1:5">
-      <c r="A234" s="2">
-        <v>1</v>
-      </c>
-      <c r="B234" s="3">
+      <c r="A234" s="1">
+        <v>1</v>
+      </c>
+      <c r="B234" s="2">
         <v>3</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="E234" s="3" t="s">
+      <c r="E234" s="2" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="235" ht="20.25" spans="1:5">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B235" s="3"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
     </row>
     <row r="236" ht="20.25" spans="1:5">
-      <c r="A236" s="2">
-        <v>1</v>
-      </c>
-      <c r="B236" s="3">
-        <v>2</v>
-      </c>
-      <c r="C236" s="3" t="s">
+      <c r="A236" s="1">
+        <v>1</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2</v>
+      </c>
+      <c r="C236" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="E236" s="3" t="s">
+      <c r="E236" s="2" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="237" ht="20.25" spans="1:5">
-      <c r="A237" s="2">
-        <v>2</v>
-      </c>
-      <c r="B237" s="3">
-        <v>2</v>
-      </c>
-      <c r="C237" s="3" t="s">
+      <c r="A237" s="1">
+        <v>2</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D237" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E237" s="3" t="s">
+      <c r="E237" s="2" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="238" ht="20.25" spans="1:5">
-      <c r="A238" s="2">
+      <c r="A238" s="1">
         <v>3</v>
       </c>
-      <c r="B238" s="3">
-        <v>2</v>
-      </c>
-      <c r="C238" s="3" t="s">
+      <c r="B238" s="2">
+        <v>2</v>
+      </c>
+      <c r="C238" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="E238" s="3" t="s">
+      <c r="E238" s="2" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="239" ht="20.25" spans="1:5">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B239" s="3"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
     </row>
     <row r="240" ht="20.25" spans="1:5">
-      <c r="A240" s="2">
-        <v>1</v>
-      </c>
-      <c r="B240" s="3">
-        <v>2</v>
-      </c>
-      <c r="C240" s="3" t="s">
+      <c r="A240" s="1">
+        <v>1</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2</v>
+      </c>
+      <c r="C240" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="E240" s="3" t="s">
+      <c r="E240" s="2" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="241" ht="20.25" spans="1:5">
-      <c r="A241" s="2">
-        <v>2</v>
-      </c>
-      <c r="B241" s="3">
-        <v>2</v>
-      </c>
-      <c r="C241" s="3" t="s">
+      <c r="A241" s="1">
+        <v>2</v>
+      </c>
+      <c r="B241" s="2">
+        <v>2</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E241" s="3" t="s">
+      <c r="E241" s="2" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="242" ht="20.25" spans="1:5">
-      <c r="A242" s="2">
+      <c r="A242" s="1">
         <v>3</v>
       </c>
-      <c r="B242" s="3">
-        <v>2</v>
-      </c>
-      <c r="C242" s="3" t="s">
+      <c r="B242" s="2">
+        <v>2</v>
+      </c>
+      <c r="C242" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="E242" s="3" t="s">
+      <c r="E242" s="2" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="243" ht="20.25" spans="1:5">
-      <c r="A243" s="2">
+      <c r="A243" s="1">
         <v>4</v>
       </c>
-      <c r="B243" s="3">
-        <v>2</v>
-      </c>
-      <c r="C243" s="3" t="s">
+      <c r="B243" s="2">
+        <v>2</v>
+      </c>
+      <c r="C243" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D243" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="E243" s="3" t="s">
+      <c r="E243" s="2" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="244" ht="20.25" spans="1:5">
-      <c r="A244" s="2">
+      <c r="A244" s="1">
         <v>5</v>
       </c>
-      <c r="B244" s="3">
-        <v>2</v>
-      </c>
-      <c r="C244" s="3" t="s">
+      <c r="B244" s="2">
+        <v>2</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D244" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="E244" s="3" t="s">
+      <c r="E244" s="2" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="245" ht="20.25" spans="1:5">
-      <c r="A245" s="2">
+      <c r="A245" s="1">
         <v>6</v>
       </c>
-      <c r="B245" s="3">
-        <v>2</v>
-      </c>
-      <c r="C245" s="3" t="s">
+      <c r="B245" s="2">
+        <v>2</v>
+      </c>
+      <c r="C245" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="E245" s="3" t="s">
+      <c r="E245" s="2" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="246" ht="20.25" spans="1:5">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="B246" s="3"/>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
     </row>
     <row r="247" ht="20.25" spans="1:5">
-      <c r="A247" s="2">
-        <v>1</v>
-      </c>
-      <c r="B247" s="3">
-        <v>1</v>
-      </c>
-      <c r="C247" s="3" t="s">
+      <c r="A247" s="1">
+        <v>1</v>
+      </c>
+      <c r="B247" s="2">
+        <v>1</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="E247" s="3" t="s">
+      <c r="E247" s="2" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="248" ht="20.25" spans="1:5">
-      <c r="A248" s="2">
-        <v>2</v>
-      </c>
-      <c r="B248" s="3">
-        <v>1</v>
-      </c>
-      <c r="C248" s="3" t="s">
+      <c r="A248" s="1">
+        <v>2</v>
+      </c>
+      <c r="B248" s="2">
+        <v>1</v>
+      </c>
+      <c r="C248" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="E248" s="3" t="s">
+      <c r="E248" s="2" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="249" ht="20.25" spans="1:5">
-      <c r="A249" s="2">
+      <c r="A249" s="1">
         <v>3</v>
       </c>
-      <c r="B249" s="3">
-        <v>1</v>
-      </c>
-      <c r="C249" s="3" t="s">
+      <c r="B249" s="2">
+        <v>1</v>
+      </c>
+      <c r="C249" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="E249" s="3" t="s">
+      <c r="E249" s="2" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="250" ht="20.25" spans="1:5">
-      <c r="A250" s="2">
+      <c r="A250" s="1">
         <v>4</v>
       </c>
-      <c r="B250" s="3">
-        <v>1</v>
-      </c>
-      <c r="C250" s="3" t="s">
+      <c r="B250" s="2">
+        <v>1</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="E250" s="3" t="s">
+      <c r="E250" s="2" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="251" ht="20.25" spans="1:5">
-      <c r="A251" s="2">
+      <c r="A251" s="1">
         <v>5</v>
       </c>
-      <c r="B251" s="3">
-        <v>1</v>
-      </c>
-      <c r="C251" s="3" t="s">
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="E251" s="3" t="s">
+      <c r="E251" s="2" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="252" ht="20.25" spans="1:5">
-      <c r="A252" s="2">
+      <c r="A252" s="1">
         <v>6</v>
       </c>
-      <c r="B252" s="3">
-        <v>1</v>
-      </c>
-      <c r="C252" s="3" t="s">
+      <c r="B252" s="2">
+        <v>1</v>
+      </c>
+      <c r="C252" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="E252" s="3" t="s">
+      <c r="E252" s="2" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="253" ht="20.25" spans="1:5">
-      <c r="A253" s="2">
+      <c r="A253" s="1">
         <v>7</v>
       </c>
-      <c r="B253" s="3">
-        <v>1</v>
-      </c>
-      <c r="C253" s="3" t="s">
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="E253" s="3" t="s">
+      <c r="E253" s="2" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="254" ht="20.25" spans="1:5">
-      <c r="A254" s="2">
+      <c r="A254" s="1">
         <v>8</v>
       </c>
-      <c r="B254" s="3">
-        <v>1</v>
-      </c>
-      <c r="C254" s="3" t="s">
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="E254" s="3" t="s">
+      <c r="E254" s="2" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="255" ht="20.25" spans="1:5">
-      <c r="A255" s="2">
+      <c r="A255" s="1">
         <v>9</v>
       </c>
-      <c r="B255" s="3">
-        <v>1</v>
-      </c>
-      <c r="C255" s="3" t="s">
+      <c r="B255" s="2">
+        <v>1</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="E255" s="3" t="s">
+      <c r="E255" s="2" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="256" ht="20.25" spans="1:5">
-      <c r="A256" s="2">
+      <c r="A256" s="1">
         <v>10</v>
       </c>
-      <c r="B256" s="3">
-        <v>1</v>
-      </c>
-      <c r="C256" s="3" t="s">
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="E256" s="3" t="s">
+      <c r="E256" s="2" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="257" ht="20.25" spans="1:5">
-      <c r="A257" s="2">
+      <c r="A257" s="1">
         <v>11</v>
       </c>
-      <c r="B257" s="3">
-        <v>1</v>
-      </c>
-      <c r="C257" s="3" t="s">
+      <c r="B257" s="2">
+        <v>1</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="E257" s="3" t="s">
+      <c r="E257" s="2" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="258" ht="20.25" spans="1:5">
-      <c r="A258" s="2">
+      <c r="A258" s="1">
         <v>12</v>
       </c>
-      <c r="B258" s="3">
-        <v>1</v>
-      </c>
-      <c r="C258" s="3" t="s">
+      <c r="B258" s="2">
+        <v>1</v>
+      </c>
+      <c r="C258" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="E258" s="3" t="s">
+      <c r="E258" s="2" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="259" ht="20.25" spans="1:5">
-      <c r="A259" s="2">
+      <c r="A259" s="1">
         <v>13</v>
       </c>
-      <c r="B259" s="3">
-        <v>1</v>
-      </c>
-      <c r="C259" s="3" t="s">
+      <c r="B259" s="2">
+        <v>1</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="E259" s="3" t="s">
+      <c r="E259" s="2" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="260" ht="20.25" spans="1:5">
-      <c r="A260" s="2">
+      <c r="A260" s="1">
         <v>14</v>
       </c>
-      <c r="B260" s="3">
-        <v>1</v>
-      </c>
-      <c r="C260" s="3" t="s">
+      <c r="B260" s="2">
+        <v>1</v>
+      </c>
+      <c r="C260" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="E260" s="3" t="s">
+      <c r="E260" s="2" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="261" ht="20.25" spans="1:5">
-      <c r="A261" s="2">
-        <v>1</v>
-      </c>
-      <c r="B261" s="3">
-        <v>2</v>
-      </c>
-      <c r="C261" s="3" t="s">
+      <c r="A261" s="1">
+        <v>1</v>
+      </c>
+      <c r="B261" s="2">
+        <v>2</v>
+      </c>
+      <c r="C261" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="E261" s="3" t="s">
+      <c r="E261" s="2" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="262" ht="20.25" spans="1:5">
-      <c r="A262" s="2" t="s">
+      <c r="A262" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B262" s="3"/>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
     </row>
     <row r="263" ht="20.25" spans="1:5">
-      <c r="A263" s="2">
-        <v>1</v>
-      </c>
-      <c r="B263" s="3">
+      <c r="A263" s="1">
+        <v>1</v>
+      </c>
+      <c r="B263" s="2">
         <v>5</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="E263" s="3" t="s">
+      <c r="E263" s="2" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="264" ht="20.25" spans="1:5">
-      <c r="A264" s="2">
-        <v>2</v>
-      </c>
-      <c r="B264" s="3">
+      <c r="A264" s="1">
+        <v>2</v>
+      </c>
+      <c r="B264" s="2">
         <v>5</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="E264" s="3" t="s">
+      <c r="E264" s="2" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="265" ht="20.25" spans="1:5">
-      <c r="A265" s="2">
+      <c r="A265" s="1">
         <v>3</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>5</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="E265" s="3" t="s">
+      <c r="E265" s="2" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="266" ht="20.25" spans="1:5">
-      <c r="A266" s="2">
+      <c r="A266" s="1">
         <v>4</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="2">
         <v>5</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="E266" s="3" t="s">
+      <c r="E266" s="2" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="267" ht="20.25" spans="1:5">
-      <c r="A267" s="2">
+      <c r="A267" s="1">
         <v>5</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="2">
         <v>5</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="E267" s="3" t="s">
+      <c r="E267" s="2" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="268" ht="20.25" spans="1:5">
-      <c r="A268" s="2">
+      <c r="A268" s="1">
         <v>6</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="2">
         <v>5</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="E268" s="3" t="s">
+      <c r="E268" s="2" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="269" ht="20.25" spans="1:5">
-      <c r="A269" s="2">
+      <c r="A269" s="1">
         <v>7</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="2">
         <v>5</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="E269" s="3" t="s">
+      <c r="E269" s="2" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="270" ht="20.25" spans="1:5">
-      <c r="A270" s="2">
+      <c r="A270" s="1">
         <v>8</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="2">
         <v>5</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="E270" s="3" t="s">
+      <c r="E270" s="2" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="271" ht="20.25" spans="1:5">
-      <c r="A271" s="2">
+      <c r="A271" s="1">
         <v>9</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="2">
         <v>5</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="E271" s="3" t="s">
+      <c r="E271" s="2" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="272" ht="20.25" spans="1:5">
-      <c r="A272" s="2">
+      <c r="A272" s="1">
         <v>10</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="2">
         <v>5</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="E272" s="3" t="s">
+      <c r="E272" s="2" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="273" ht="20.25" spans="1:5">
-      <c r="A273" s="2">
+      <c r="A273" s="1">
         <v>11</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="2">
         <v>5</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="E273" s="3" t="s">
+      <c r="E273" s="2" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="274" ht="20.25" spans="1:5">
-      <c r="A274" s="2">
+      <c r="A274" s="1">
         <v>12</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="2">
         <v>5</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="E274" s="3" t="s">
+      <c r="E274" s="2" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="275" ht="20.25" spans="1:5">
-      <c r="A275" s="2">
+      <c r="A275" s="1">
         <v>13</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="2">
         <v>5</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="E275" s="3" t="s">
+      <c r="E275" s="2" t="s">
         <v>850</v>
       </c>
     </row>
@@ -11678,4 +11712,575 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="52.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20.25" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="20.25" spans="1:11">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" ht="20.25" spans="1:11">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" ht="20.25" spans="1:11">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" spans="1:11">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" ht="20.25" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" ht="20.25" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" ht="20.25" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" ht="20.25" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" ht="20.25" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" ht="20.25" spans="1:11">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="12" ht="20.25" spans="1:11">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" ht="20.25" spans="1:11">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" ht="20.25" spans="1:12">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L14" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="15" ht="20.25" spans="1:11">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" ht="20.25" spans="1:11">
+      <c r="A16" s="1">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="17" ht="20.25" spans="1:11">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="18" ht="20.25" spans="1:11">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" spans="1:11">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="20" ht="20.25" spans="1:11">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="21" ht="20.25" spans="1:11">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" ht="20.25" spans="1:11">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="23" ht="20.25" spans="1:11">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" ht="20.25" spans="1:11">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" display="1" tooltip="https://redis.io/commands/lindex"/>
+    <hyperlink ref="A15" r:id="rId2" display="2" tooltip="https://redis.io/commands/llen"/>
+    <hyperlink ref="A11" r:id="rId3" display="3" tooltip="https://redis.io/commands/lpop"/>
+    <hyperlink ref="A2" r:id="rId4" display="4" tooltip="https://redis.io/commands/lpush"/>
+    <hyperlink ref="A13" r:id="rId5" display="5" tooltip="https://redis.io/commands/lrange"/>
+    <hyperlink ref="A4" r:id="rId6" display="6" tooltip="https://redis.io/commands/lrem"/>
+    <hyperlink ref="A5" r:id="rId7" display="7" tooltip="https://redis.io/commands/lset"/>
+    <hyperlink ref="A16" r:id="rId8" display="8" tooltip="https://redis.io/commands/ltrim"/>
+    <hyperlink ref="A12" r:id="rId9" display="9" tooltip="https://redis.io/commands/rpop"/>
+    <hyperlink ref="A17" r:id="rId10" display="10" tooltip="https://redis.io/commands/rpoplpush"/>
+    <hyperlink ref="A3" r:id="rId11" display="11" tooltip="https://redis.io/commands/rpush"/>
+    <hyperlink ref="A18" r:id="rId12" display="1" tooltip="https://redis.io/commands/blpop"/>
+    <hyperlink ref="A19" r:id="rId13" display="2" tooltip="https://redis.io/commands/brpop"/>
+    <hyperlink ref="A20" r:id="rId14" display="3" tooltip="https://redis.io/commands/brpoplpush"/>
+    <hyperlink ref="A21" r:id="rId15" display="4" tooltip="https://redis.io/commands/linsert"/>
+    <hyperlink ref="A22" r:id="rId16" display="5" tooltip="https://redis.io/commands/lpushx"/>
+    <hyperlink ref="A23" r:id="rId17" display="6" tooltip="https://redis.io/commands/rpushx"/>
+    <hyperlink ref="A24" r:id="rId18" display="1" tooltip="https://redis.io/commands/lpos"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>